--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Sema3a-Plxna1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Sema3a-Plxna1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.519469698237307</v>
+        <v>0.8029023333333333</v>
       </c>
       <c r="H2">
-        <v>0.519469698237307</v>
+        <v>2.408707</v>
       </c>
       <c r="I2">
-        <v>0.06179182685280089</v>
+        <v>0.06206726394886004</v>
       </c>
       <c r="J2">
-        <v>0.06179182685280089</v>
+        <v>0.06206726394886004</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.52056440477308</v>
+        <v>4.665097333333334</v>
       </c>
       <c r="N2">
-        <v>3.52056440477308</v>
+        <v>13.995292</v>
       </c>
       <c r="O2">
-        <v>0.04938495720692135</v>
+        <v>0.06181862018736071</v>
       </c>
       <c r="P2">
-        <v>0.04938495720692135</v>
+        <v>0.06181862018736071</v>
       </c>
       <c r="Q2">
-        <v>1.828826528972477</v>
+        <v>3.745617534160445</v>
       </c>
       <c r="R2">
-        <v>1.828826528972477</v>
+        <v>33.710557807444</v>
       </c>
       <c r="S2">
-        <v>0.003051586724863066</v>
+        <v>0.003836912616123245</v>
       </c>
       <c r="T2">
-        <v>0.003051586724863066</v>
+        <v>0.003836912616123245</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.519469698237307</v>
+        <v>0.8029023333333333</v>
       </c>
       <c r="H3">
-        <v>0.519469698237307</v>
+        <v>2.408707</v>
       </c>
       <c r="I3">
-        <v>0.06179182685280089</v>
+        <v>0.06206726394886004</v>
       </c>
       <c r="J3">
-        <v>0.06179182685280089</v>
+        <v>0.06206726394886004</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>16.2642187444079</v>
+        <v>16.41004366666667</v>
       </c>
       <c r="N3">
-        <v>16.2642187444079</v>
+        <v>49.230131</v>
       </c>
       <c r="O3">
-        <v>0.2281474372710313</v>
+        <v>0.2174544675497312</v>
       </c>
       <c r="P3">
-        <v>0.2281474372710313</v>
+        <v>0.2174544675497312</v>
       </c>
       <c r="Q3">
-        <v>8.448768803223125</v>
+        <v>13.17566235006855</v>
       </c>
       <c r="R3">
-        <v>8.448768803223125</v>
+        <v>118.580961150617</v>
       </c>
       <c r="S3">
-        <v>0.01409764694076182</v>
+        <v>0.01349680383426798</v>
       </c>
       <c r="T3">
-        <v>0.01409764694076182</v>
+        <v>0.01349680383426798</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.519469698237307</v>
+        <v>0.8029023333333333</v>
       </c>
       <c r="H4">
-        <v>0.519469698237307</v>
+        <v>2.408707</v>
       </c>
       <c r="I4">
-        <v>0.06179182685280089</v>
+        <v>0.06206726394886004</v>
       </c>
       <c r="J4">
-        <v>0.06179182685280089</v>
+        <v>0.06206726394886004</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.3925551656488</v>
+        <v>17.65804266666667</v>
       </c>
       <c r="N4">
-        <v>15.3925551656488</v>
+        <v>52.974128</v>
       </c>
       <c r="O4">
-        <v>0.2159201169932123</v>
+        <v>0.2339920809504103</v>
       </c>
       <c r="P4">
-        <v>0.2159201169932123</v>
+        <v>0.2339920809504103</v>
       </c>
       <c r="Q4">
-        <v>7.995965987000684</v>
+        <v>14.17768365916622</v>
       </c>
       <c r="R4">
-        <v>7.995965987000684</v>
+        <v>127.599152932496</v>
       </c>
       <c r="S4">
-        <v>0.01334209848328108</v>
+        <v>0.01452324825029214</v>
       </c>
       <c r="T4">
-        <v>0.01334209848328108</v>
+        <v>0.01452324825029214</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.519469698237307</v>
+        <v>0.8029023333333333</v>
       </c>
       <c r="H5">
-        <v>0.519469698237307</v>
+        <v>2.408707</v>
       </c>
       <c r="I5">
-        <v>0.06179182685280089</v>
+        <v>0.06206726394886004</v>
       </c>
       <c r="J5">
-        <v>0.06179182685280089</v>
+        <v>0.06206726394886004</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.1949830623744</v>
+        <v>13.44741733333333</v>
       </c>
       <c r="N5">
-        <v>13.1949830623744</v>
+        <v>40.342252</v>
       </c>
       <c r="O5">
-        <v>0.1850935244922506</v>
+        <v>0.1781958071250527</v>
       </c>
       <c r="P5">
-        <v>0.1850935244922506</v>
+        <v>0.1781958071250527</v>
       </c>
       <c r="Q5">
-        <v>6.854393869658007</v>
+        <v>10.79696275424044</v>
       </c>
       <c r="R5">
-        <v>6.854393869658007</v>
+        <v>97.172664788164</v>
       </c>
       <c r="S5">
-        <v>0.01143726701699981</v>
+        <v>0.0110601261954108</v>
       </c>
       <c r="T5">
-        <v>0.01143726701699981</v>
+        <v>0.0110601261954108</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.519469698237307</v>
+        <v>0.8029023333333333</v>
       </c>
       <c r="H6">
-        <v>0.519469698237307</v>
+        <v>2.408707</v>
       </c>
       <c r="I6">
-        <v>0.06179182685280089</v>
+        <v>0.06206726394886004</v>
       </c>
       <c r="J6">
-        <v>0.06179182685280089</v>
+        <v>0.06206726394886004</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.92480395946743</v>
+        <v>5.111344666666667</v>
       </c>
       <c r="N6">
-        <v>4.92480395946743</v>
+        <v>15.334034</v>
       </c>
       <c r="O6">
-        <v>0.06908302329621836</v>
+        <v>0.06773197899594202</v>
       </c>
       <c r="P6">
-        <v>0.06908302329621836</v>
+        <v>0.06773197899594202</v>
       </c>
       <c r="Q6">
-        <v>2.558286426702441</v>
+        <v>4.103910559337555</v>
       </c>
       <c r="R6">
-        <v>2.558286426702441</v>
+        <v>36.935195034038</v>
       </c>
       <c r="S6">
-        <v>0.004268766213987935</v>
+        <v>0.004203938618119778</v>
       </c>
       <c r="T6">
-        <v>0.004268766213987935</v>
+        <v>0.004203938618119778</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.519469698237307</v>
+        <v>0.8029023333333333</v>
       </c>
       <c r="H7">
-        <v>0.519469698237307</v>
+        <v>2.408707</v>
       </c>
       <c r="I7">
-        <v>0.06179182685280089</v>
+        <v>0.06206726394886004</v>
       </c>
       <c r="J7">
-        <v>0.06179182685280089</v>
+        <v>0.06206726394886004</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>17.9910685565018</v>
+        <v>18.172329</v>
       </c>
       <c r="N7">
-        <v>17.9910685565018</v>
+        <v>54.516987</v>
       </c>
       <c r="O7">
-        <v>0.2523709407403662</v>
+        <v>0.2408070451915031</v>
       </c>
       <c r="P7">
-        <v>0.2523709407403662</v>
+        <v>0.2408070451915031</v>
       </c>
       <c r="Q7">
-        <v>9.345814954012694</v>
+        <v>14.590605356201</v>
       </c>
       <c r="R7">
-        <v>9.345814954012694</v>
+        <v>131.315448205809</v>
       </c>
       <c r="S7">
-        <v>0.01559446147290718</v>
+        <v>0.01494623443464609</v>
       </c>
       <c r="T7">
-        <v>0.01559446147290718</v>
+        <v>0.01494623443464609</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.61307029469273</v>
+        <v>2.159929333333333</v>
       </c>
       <c r="H8">
-        <v>1.61307029469273</v>
+        <v>6.479788</v>
       </c>
       <c r="I8">
-        <v>0.191877525656012</v>
+        <v>0.1669703754456877</v>
       </c>
       <c r="J8">
-        <v>0.191877525656012</v>
+        <v>0.1669703754456877</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.52056440477308</v>
+        <v>4.665097333333334</v>
       </c>
       <c r="N8">
-        <v>3.52056440477308</v>
+        <v>13.995292</v>
       </c>
       <c r="O8">
-        <v>0.04938495720692135</v>
+        <v>0.06181862018736071</v>
       </c>
       <c r="P8">
-        <v>0.04938495720692135</v>
+        <v>0.06181862018736071</v>
       </c>
       <c r="Q8">
-        <v>5.678917861892048</v>
+        <v>10.07628057312178</v>
       </c>
       <c r="R8">
-        <v>5.678917861892048</v>
+        <v>90.686525158096</v>
       </c>
       <c r="S8">
-        <v>0.009475863393492105</v>
+        <v>0.01032187822221798</v>
       </c>
       <c r="T8">
-        <v>0.009475863393492105</v>
+        <v>0.01032187822221798</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.61307029469273</v>
+        <v>2.159929333333333</v>
       </c>
       <c r="H9">
-        <v>1.61307029469273</v>
+        <v>6.479788</v>
       </c>
       <c r="I9">
-        <v>0.191877525656012</v>
+        <v>0.1669703754456877</v>
       </c>
       <c r="J9">
-        <v>0.191877525656012</v>
+        <v>0.1669703754456877</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>16.2642187444079</v>
+        <v>16.41004366666667</v>
       </c>
       <c r="N9">
-        <v>16.2642187444079</v>
+        <v>49.230131</v>
       </c>
       <c r="O9">
-        <v>0.2281474372710313</v>
+        <v>0.2174544675497312</v>
       </c>
       <c r="P9">
-        <v>0.2281474372710313</v>
+        <v>0.2174544675497312</v>
       </c>
       <c r="Q9">
-        <v>26.23532812298907</v>
+        <v>35.44453467691422</v>
       </c>
       <c r="R9">
-        <v>26.23532812298907</v>
+        <v>319.000812092228</v>
       </c>
       <c r="S9">
-        <v>0.0437763657483257</v>
+        <v>0.03630845408912071</v>
       </c>
       <c r="T9">
-        <v>0.0437763657483257</v>
+        <v>0.03630845408912071</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>25</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.61307029469273</v>
+        <v>2.159929333333333</v>
       </c>
       <c r="H10">
-        <v>1.61307029469273</v>
+        <v>6.479788</v>
       </c>
       <c r="I10">
-        <v>0.191877525656012</v>
+        <v>0.1669703754456877</v>
       </c>
       <c r="J10">
-        <v>0.191877525656012</v>
+        <v>0.1669703754456877</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.3925551656488</v>
+        <v>17.65804266666667</v>
       </c>
       <c r="N10">
-        <v>15.3925551656488</v>
+        <v>52.974128</v>
       </c>
       <c r="O10">
-        <v>0.2159201169932123</v>
+        <v>0.2339920809504103</v>
       </c>
       <c r="P10">
-        <v>0.2159201169932123</v>
+        <v>0.2339920809504103</v>
       </c>
       <c r="Q10">
-        <v>24.82927349712721</v>
+        <v>38.14012432498489</v>
       </c>
       <c r="R10">
-        <v>24.82927349712721</v>
+        <v>343.261118924864</v>
       </c>
       <c r="S10">
-        <v>0.04143021778801419</v>
+        <v>0.03906974560760775</v>
       </c>
       <c r="T10">
-        <v>0.04143021778801419</v>
+        <v>0.03906974560760775</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.61307029469273</v>
+        <v>2.159929333333333</v>
       </c>
       <c r="H11">
-        <v>1.61307029469273</v>
+        <v>6.479788</v>
       </c>
       <c r="I11">
-        <v>0.191877525656012</v>
+        <v>0.1669703754456877</v>
       </c>
       <c r="J11">
-        <v>0.191877525656012</v>
+        <v>0.1669703754456877</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>13.1949830623744</v>
+        <v>13.44741733333333</v>
       </c>
       <c r="N11">
-        <v>13.1949830623744</v>
+        <v>40.342252</v>
       </c>
       <c r="O11">
-        <v>0.1850935244922506</v>
+        <v>0.1781958071250527</v>
       </c>
       <c r="P11">
-        <v>0.1850935244922506</v>
+        <v>0.1781958071250527</v>
       </c>
       <c r="Q11">
-        <v>21.28443521688985</v>
+        <v>29.04547115584178</v>
       </c>
       <c r="R11">
-        <v>21.28443521688985</v>
+        <v>261.409240402576</v>
       </c>
       <c r="S11">
-        <v>0.03551528749452349</v>
+        <v>0.02975342081851739</v>
       </c>
       <c r="T11">
-        <v>0.03551528749452349</v>
+        <v>0.02975342081851739</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.61307029469273</v>
+        <v>2.159929333333333</v>
       </c>
       <c r="H12">
-        <v>1.61307029469273</v>
+        <v>6.479788</v>
       </c>
       <c r="I12">
-        <v>0.191877525656012</v>
+        <v>0.1669703754456877</v>
       </c>
       <c r="J12">
-        <v>0.191877525656012</v>
+        <v>0.1669703754456877</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.92480395946743</v>
+        <v>5.111344666666667</v>
       </c>
       <c r="N12">
-        <v>4.92480395946743</v>
+        <v>15.334034</v>
       </c>
       <c r="O12">
-        <v>0.06908302329621836</v>
+        <v>0.06773197899594202</v>
       </c>
       <c r="P12">
-        <v>0.06908302329621836</v>
+        <v>0.06773197899594202</v>
       </c>
       <c r="Q12">
-        <v>7.94405497420205</v>
+        <v>11.04014327831022</v>
       </c>
       <c r="R12">
-        <v>7.94405497420205</v>
+        <v>99.36128950479201</v>
       </c>
       <c r="S12">
-        <v>0.01325547957491501</v>
+        <v>0.01130923396263187</v>
       </c>
       <c r="T12">
-        <v>0.01325547957491501</v>
+        <v>0.01130923396263187</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.61307029469273</v>
+        <v>2.159929333333333</v>
       </c>
       <c r="H13">
-        <v>1.61307029469273</v>
+        <v>6.479788</v>
       </c>
       <c r="I13">
-        <v>0.191877525656012</v>
+        <v>0.1669703754456877</v>
       </c>
       <c r="J13">
-        <v>0.191877525656012</v>
+        <v>0.1669703754456877</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>17.9910685565018</v>
+        <v>18.172329</v>
       </c>
       <c r="N13">
-        <v>17.9910685565018</v>
+        <v>54.516987</v>
       </c>
       <c r="O13">
-        <v>0.2523709407403662</v>
+        <v>0.2408070451915031</v>
       </c>
       <c r="P13">
-        <v>0.2523709407403662</v>
+        <v>0.2408070451915031</v>
       </c>
       <c r="Q13">
-        <v>29.02085825827347</v>
+        <v>39.250946462084</v>
       </c>
       <c r="R13">
-        <v>29.02085825827347</v>
+        <v>353.258518158756</v>
       </c>
       <c r="S13">
-        <v>0.0484243116567415</v>
+        <v>0.04020764274559194</v>
       </c>
       <c r="T13">
-        <v>0.0484243116567415</v>
+        <v>0.04020764274559194</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.27423036320098</v>
+        <v>9.973171666666666</v>
       </c>
       <c r="H14">
-        <v>6.27423036320098</v>
+        <v>29.919515</v>
       </c>
       <c r="I14">
-        <v>0.7463306474911872</v>
+        <v>0.7709623606054523</v>
       </c>
       <c r="J14">
-        <v>0.7463306474911872</v>
+        <v>0.7709623606054523</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.52056440477308</v>
+        <v>4.665097333333334</v>
       </c>
       <c r="N14">
-        <v>3.52056440477308</v>
+        <v>13.995292</v>
       </c>
       <c r="O14">
-        <v>0.04938495720692135</v>
+        <v>0.06181862018736071</v>
       </c>
       <c r="P14">
-        <v>0.04938495720692135</v>
+        <v>0.06181862018736071</v>
       </c>
       <c r="Q14">
-        <v>22.08883208403184</v>
+        <v>46.52581654704222</v>
       </c>
       <c r="R14">
-        <v>22.08883208403184</v>
+        <v>418.73234892338</v>
       </c>
       <c r="S14">
-        <v>0.03685750708856618</v>
+        <v>0.04765982934901949</v>
       </c>
       <c r="T14">
-        <v>0.03685750708856618</v>
+        <v>0.04765982934901948</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.27423036320098</v>
+        <v>9.973171666666666</v>
       </c>
       <c r="H15">
-        <v>6.27423036320098</v>
+        <v>29.919515</v>
       </c>
       <c r="I15">
-        <v>0.7463306474911872</v>
+        <v>0.7709623606054523</v>
       </c>
       <c r="J15">
-        <v>0.7463306474911872</v>
+        <v>0.7709623606054523</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>16.2642187444079</v>
+        <v>16.41004366666667</v>
       </c>
       <c r="N15">
-        <v>16.2642187444079</v>
+        <v>49.230131</v>
       </c>
       <c r="O15">
-        <v>0.2281474372710313</v>
+        <v>0.2174544675497312</v>
       </c>
       <c r="P15">
-        <v>0.2281474372710313</v>
+        <v>0.2174544675497312</v>
       </c>
       <c r="Q15">
-        <v>102.0454550799065</v>
+        <v>163.6601825451628</v>
       </c>
       <c r="R15">
-        <v>102.0454550799065</v>
+        <v>1472.941642906465</v>
       </c>
       <c r="S15">
-        <v>0.1702734245819438</v>
+        <v>0.1676492096263425</v>
       </c>
       <c r="T15">
-        <v>0.1702734245819438</v>
+        <v>0.1676492096263425</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>25</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.27423036320098</v>
+        <v>9.973171666666666</v>
       </c>
       <c r="H16">
-        <v>6.27423036320098</v>
+        <v>29.919515</v>
       </c>
       <c r="I16">
-        <v>0.7463306474911872</v>
+        <v>0.7709623606054523</v>
       </c>
       <c r="J16">
-        <v>0.7463306474911872</v>
+        <v>0.7709623606054523</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>15.3925551656488</v>
+        <v>17.65804266666667</v>
       </c>
       <c r="N16">
-        <v>15.3925551656488</v>
+        <v>52.974128</v>
       </c>
       <c r="O16">
-        <v>0.2159201169932123</v>
+        <v>0.2339920809504103</v>
       </c>
       <c r="P16">
-        <v>0.2159201169932123</v>
+        <v>0.2339920809504103</v>
       </c>
       <c r="Q16">
-        <v>96.57643698755979</v>
+        <v>176.1066908119911</v>
       </c>
       <c r="R16">
-        <v>96.57643698755979</v>
+        <v>1584.96021730792</v>
       </c>
       <c r="S16">
-        <v>0.161147800721917</v>
+        <v>0.1803990870925104</v>
       </c>
       <c r="T16">
-        <v>0.161147800721917</v>
+        <v>0.1803990870925104</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>26</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.27423036320098</v>
+        <v>9.973171666666666</v>
       </c>
       <c r="H17">
-        <v>6.27423036320098</v>
+        <v>29.919515</v>
       </c>
       <c r="I17">
-        <v>0.7463306474911872</v>
+        <v>0.7709623606054523</v>
       </c>
       <c r="J17">
-        <v>0.7463306474911872</v>
+        <v>0.7709623606054523</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>13.1949830623744</v>
+        <v>13.44741733333333</v>
       </c>
       <c r="N17">
-        <v>13.1949830623744</v>
+        <v>40.342252</v>
       </c>
       <c r="O17">
-        <v>0.1850935244922506</v>
+        <v>0.1781958071250527</v>
       </c>
       <c r="P17">
-        <v>0.1850935244922506</v>
+        <v>0.1781958071250527</v>
       </c>
       <c r="Q17">
-        <v>82.78836337187211</v>
+        <v>134.1134015386422</v>
       </c>
       <c r="R17">
-        <v>82.78836337187211</v>
+        <v>1207.02061384778</v>
       </c>
       <c r="S17">
-        <v>0.1381409699807273</v>
+        <v>0.1373822601111245</v>
       </c>
       <c r="T17">
-        <v>0.1381409699807273</v>
+        <v>0.1373822601111245</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>27</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>6.27423036320098</v>
+        <v>9.973171666666666</v>
       </c>
       <c r="H18">
-        <v>6.27423036320098</v>
+        <v>29.919515</v>
       </c>
       <c r="I18">
-        <v>0.7463306474911872</v>
+        <v>0.7709623606054523</v>
       </c>
       <c r="J18">
-        <v>0.7463306474911872</v>
+        <v>0.7709623606054523</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.92480395946743</v>
+        <v>5.111344666666667</v>
       </c>
       <c r="N18">
-        <v>4.92480395946743</v>
+        <v>15.334034</v>
       </c>
       <c r="O18">
-        <v>0.06908302329621836</v>
+        <v>0.06773197899594202</v>
       </c>
       <c r="P18">
-        <v>0.06908302329621836</v>
+        <v>0.06773197899594202</v>
       </c>
       <c r="Q18">
-        <v>30.89935453530295</v>
+        <v>50.97631780816777</v>
       </c>
       <c r="R18">
-        <v>30.89935453530295</v>
+        <v>458.78686027351</v>
       </c>
       <c r="S18">
-        <v>0.05155877750731542</v>
+        <v>0.05221880641519037</v>
       </c>
       <c r="T18">
-        <v>0.05155877750731542</v>
+        <v>0.05221880641519037</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>6.27423036320098</v>
+        <v>9.973171666666666</v>
       </c>
       <c r="H19">
-        <v>6.27423036320098</v>
+        <v>29.919515</v>
       </c>
       <c r="I19">
-        <v>0.7463306474911872</v>
+        <v>0.7709623606054523</v>
       </c>
       <c r="J19">
-        <v>0.7463306474911872</v>
+        <v>0.7709623606054523</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>17.9910685565018</v>
+        <v>18.172329</v>
       </c>
       <c r="N19">
-        <v>17.9910685565018</v>
+        <v>54.516987</v>
       </c>
       <c r="O19">
-        <v>0.2523709407403662</v>
+        <v>0.2408070451915031</v>
       </c>
       <c r="P19">
-        <v>0.2523709407403662</v>
+        <v>0.2408070451915031</v>
       </c>
       <c r="Q19">
-        <v>112.880108603634</v>
+        <v>181.235756700145</v>
       </c>
       <c r="R19">
-        <v>112.880108603634</v>
+        <v>1631.121810301305</v>
       </c>
       <c r="S19">
-        <v>0.1883521676107175</v>
+        <v>0.1856531680112651</v>
       </c>
       <c r="T19">
-        <v>0.1883521676107175</v>
+        <v>0.185653168011265</v>
       </c>
     </row>
   </sheetData>
